--- a/DateBase/orders/Dang Nguyen_2024-11-1.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-1.xlsx
@@ -909,6 +909,9 @@
       <c r="G2" t="str">
         <v>010101525520102510151010105515302520151522345258663107711420203101102010885201010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
